--- a/src/test/resources/doc/foreach.xlsx
+++ b/src/test/resources/doc/foreach.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FFA933EB-11F1-4565-B0E4-DC25EE405879}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15510" windowHeight="5970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15516" windowHeight="5976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>高度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,13 +154,25 @@
   </si>
   <si>
     <t>t.sex == manmark ? 男 : 女}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并后的测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试合并呀呀呀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我爱合并</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
@@ -301,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -334,6 +347,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -352,7 +368,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -427,6 +443,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -462,6 +495,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -637,26 +687,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.125" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" customWidth="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="17.25" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>12</v>
       </c>
@@ -670,7 +720,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
@@ -684,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>23</v>
       </c>
@@ -698,7 +748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -706,7 +756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -717,7 +767,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -725,7 +775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
@@ -737,7 +787,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>33</v>
       </c>
@@ -749,7 +799,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -759,7 +809,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -767,7 +817,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -790,7 +840,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -814,9 +864,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -825,7 +878,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -836,8 +889,11 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="5"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="17"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -847,9 +903,11 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="18"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -858,7 +916,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -869,7 +927,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -880,7 +938,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -891,7 +949,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -902,7 +960,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -913,7 +971,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -924,7 +982,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -935,7 +993,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -946,7 +1004,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -957,7 +1015,7 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -968,7 +1026,7 @@
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -979,7 +1037,7 @@
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -990,7 +1048,7 @@
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1001,7 +1059,7 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -1012,7 +1070,7 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -1023,7 +1081,7 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -1034,7 +1092,7 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -1045,7 +1103,7 @@
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -1056,7 +1114,7 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -1067,7 +1125,7 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -1079,8 +1137,11 @@
       <c r="J36" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
